--- a/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_pollock_single_species_1970-2018_fixed_bt_sel.xlsx
+++ b/GOA/Model runs/GOA_18.5.1/Data/GOA_18.5.1_pollock_single_species_1970-2018_fixed_bt_sel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantadams/Documents/GitHub/RceattleRuns/GOA/Model runs/GOA_18.5.1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19B515E-52D2-554C-B8E6-C9846CB43CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6595CA-60F9-DB4C-9B51-BC052AEAE01E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39100" yWindow="-1420" windowWidth="19120" windowHeight="13320" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -27808,8 +27808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28309,7 +28309,7 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q8">
         <v>2</v>
